--- a/firebase_data_from_spyEnsembleEOE.xlsx
+++ b/firebase_data_from_spyEnsembleEOE.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9B0EF4-9F3C-44DF-BEA9-5F9C5F2A9477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -620,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G10">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -672,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -718,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -787,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -810,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -833,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -856,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -879,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -902,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -925,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -948,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -971,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1011,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.2972972972972973</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="G27">
-        <v>0.7027027027027027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.70270270270270274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1103,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.3142857142857143</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="G31">
-        <v>0.6857142857142857</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.68571428571428572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1149,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.3142857142857143</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="G33">
-        <v>0.6857142857142857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.68571428571428572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1172,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="G34">
-        <v>0.3142857142857143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1333,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.388888888888889</v>
+        <v>0.38888888888888901</v>
       </c>
       <c r="G41">
-        <v>0.6111111111111112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1356,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.388888888888889</v>
+        <v>0.38888888888888901</v>
       </c>
       <c r="G42">
-        <v>0.6111111111111112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1379,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="G43">
-        <v>0.3513513513513514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.35135135135135143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1517,13 +1535,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.3513513513513514</v>
+        <v>0.35135135135135143</v>
       </c>
       <c r="G49">
-        <v>0.6486486486486487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1540,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.3157894736842105</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="G50">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1586,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G52">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1632,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="G54">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1661,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1816,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.368421052631579</v>
+        <v>0.36842105263157898</v>
       </c>
       <c r="G62">
-        <v>0.6315789473684211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.63157894736842113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1862,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G64">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1908,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.3157894736842105</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="G66">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1954,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G68">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2581,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2759,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G103">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2782,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.3235294117647058</v>
+        <v>0.32352941176470579</v>
       </c>
       <c r="G104">
-        <v>0.6764705882352942</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2897,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G109">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3081,13 +3099,13 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0.3414634146341464</v>
+        <v>0.34146341463414642</v>
       </c>
       <c r="G117">
-        <v>0.6585365853658537</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>0.65853658536585369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3110,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3127,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.3255813953488371</v>
+        <v>0.32558139534883712</v>
       </c>
       <c r="G119">
-        <v>0.6744186046511628</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>0.67441860465116277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3219,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>0.3409090909090909</v>
+        <v>0.34090909090909088</v>
       </c>
       <c r="G123">
-        <v>0.6590909090909091</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>0.65909090909090906</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3242,13 +3260,13 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0.3260869565217391</v>
+        <v>0.32608695652173908</v>
       </c>
       <c r="G124">
-        <v>0.673913043478261</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>0.67391304347826098</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3311,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0.3469387755102041</v>
+        <v>0.34693877551020408</v>
       </c>
       <c r="G127">
-        <v>0.653061224489796</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>0.65306122448979598</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3403,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0.2916666666666666</v>
+        <v>0.29166666666666657</v>
       </c>
       <c r="G131">
-        <v>0.7083333333333335</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>0.70833333333333348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3541,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>0.2916666666666666</v>
+        <v>0.29166666666666657</v>
       </c>
       <c r="G137">
-        <v>0.7083333333333335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>0.70833333333333348</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3702,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.2682926829268292</v>
+        <v>0.26829268292682917</v>
       </c>
       <c r="G144">
-        <v>0.7317073170731707</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>0.73170731707317072</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3840,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0.6341463414634146</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="G150">
-        <v>0.3658536585365855</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>0.36585365853658552</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3915,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3958,10 +3976,10 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G155">
-        <v>0.3571428571428572</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>0.35714285714285721</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4030,7 +4048,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4053,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4076,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4191,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G174">
-        <v>0.3333333333333334</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>0.33333333333333343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4438,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0.653061224489796</v>
+        <v>0.65306122448979598</v>
       </c>
       <c r="G176">
-        <v>0.3469387755102041</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>0.34693877551020408</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4461,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>0.3191489361702128</v>
+        <v>0.31914893617021278</v>
       </c>
       <c r="G177">
-        <v>0.6808510638297873</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>0.68085106382978733</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4507,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>0.3111111111111111</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="G179">
-        <v>0.6888888888888889</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>0.68888888888888888</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4530,13 +4548,13 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <v>0.3260869565217391</v>
+        <v>0.32608695652173908</v>
       </c>
       <c r="G180">
-        <v>0.673913043478261</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>0.67391304347826098</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4559,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4651,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4691,13 +4709,13 @@
         <v>1</v>
       </c>
       <c r="F187">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="G187">
-        <v>0.3846153846153846</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4806,13 +4824,13 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>0.4799999999999999</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="G192">
         <v>0.52</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4835,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4898,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0.4583333333333334</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="G196">
-        <v>0.5416666666666667</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>0.54166666666666674</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4921,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0.657142857142857</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="G197">
-        <v>0.3428571428571429</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>0.34285714285714292</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4944,13 +4962,13 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>0.4782608695652174</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="G198">
-        <v>0.5217391304347826</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4973,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5013,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G201">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5082,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="G204">
-        <v>0.3142857142857143</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5105,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G205">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5203,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5226,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5410,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5433,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5450,13 +5468,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>0.6818181818181818</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="G220">
-        <v>0.3181818181818182</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5473,13 +5491,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>0.7111111111111111</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="G221">
-        <v>0.2888888888888889</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>0.28888888888888892</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5525,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5663,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5755,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5841,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>0.3478260869565218</v>
+        <v>0.34782608695652178</v>
       </c>
       <c r="G237">
-        <v>0.6521739130434783</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5864,13 +5882,13 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0.6382978723404256</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="G238">
-        <v>0.3617021276595745</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>0.36170212765957449</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5956,13 +5974,13 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>0.3750000000000002</v>
+        <v>0.37500000000000022</v>
       </c>
       <c r="G242">
         <v>0.625</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5985,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6008,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6054,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6071,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>0.326530612244898</v>
+        <v>0.32653061224489799</v>
       </c>
       <c r="G247">
-        <v>0.673469387755102</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>0.67346938775510201</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6163,13 +6181,13 @@
         <v>1</v>
       </c>
       <c r="F251">
-        <v>0.6862745098039216</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="G251">
-        <v>0.3137254901960784</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>0.31372549019607843</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6209,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>0.3469387755102041</v>
+        <v>0.34693877551020408</v>
       </c>
       <c r="G253">
-        <v>0.653061224489796</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>0.65306122448979598</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6238,7 +6256,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6278,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0.6938775510204082</v>
+        <v>0.69387755102040816</v>
       </c>
       <c r="G256">
-        <v>0.3061224489795918</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>0.30612244897959179</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6301,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>0.6595744680851063</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="G257">
-        <v>0.3404255319148938</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>0.34042553191489378</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6353,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6491,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6577,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G269">
-        <v>0.3636363636363636</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>0.36363636363636359</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6606,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6652,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6675,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6744,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6813,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6882,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7043,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7066,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7135,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7175,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="F295">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G295">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7204,7 +7222,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7244,13 +7262,13 @@
         <v>0</v>
       </c>
       <c r="F298">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G298">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7434,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7474,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="F308">
-        <v>0.3260869565217391</v>
+        <v>0.32608695652173908</v>
       </c>
       <c r="G308">
-        <v>0.673913043478261</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>0.67391304347826098</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7526,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7543,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G311">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7658,13 +7676,13 @@
         <v>1</v>
       </c>
       <c r="F316">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="G316">
-        <v>0.2894736842105263</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7710,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7733,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7756,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7802,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7825,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7848,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7888,13 +7906,13 @@
         <v>1</v>
       </c>
       <c r="F326">
-        <v>0.2682926829268292</v>
+        <v>0.26829268292682917</v>
       </c>
       <c r="G326">
-        <v>0.7317073170731707</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>0.73170731707317072</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7917,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7940,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7983,10 +8001,10 @@
         <v>0.53125</v>
       </c>
       <c r="G330">
-        <v>0.4687499999999998</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>0.46874999999999978</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8009,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8032,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8072,13 +8090,13 @@
         <v>1</v>
       </c>
       <c r="F334">
-        <v>0.7391304347826088</v>
+        <v>0.73913043478260876</v>
       </c>
       <c r="G334">
         <v>0.2608695652173913</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8118,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="F336">
-        <v>0.2448979591836735</v>
+        <v>0.24489795918367349</v>
       </c>
       <c r="G336">
         <v>0.7551020408163267</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8147,7 +8165,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8167,10 +8185,10 @@
         <v>0.625</v>
       </c>
       <c r="G338">
-        <v>0.3750000000000002</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>0.37500000000000022</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8193,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8210,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="F340">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G340">
-        <v>0.2941176470588235</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>0.29411764705882348</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8256,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="F342">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="G342">
-        <v>0.7058823529411765</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8285,7 +8303,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8308,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8328,10 +8346,10 @@
         <v>0.68</v>
       </c>
       <c r="G345">
-        <v>0.3200000000000001</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>0.32000000000000012</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8348,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G346">
-        <v>0.3333333333333334</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>0.33333333333333343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8377,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8400,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8417,13 +8435,13 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>0.3409090909090909</v>
+        <v>0.34090909090909088</v>
       </c>
       <c r="G349">
-        <v>0.6590909090909091</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>0.65909090909090906</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>0.6744186046511628</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="G350">
-        <v>0.3255813953488371</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>0.32558139534883712</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8469,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8486,13 +8504,13 @@
         <v>1</v>
       </c>
       <c r="F352">
-        <v>0.6976744186046511</v>
+        <v>0.69767441860465107</v>
       </c>
       <c r="G352">
-        <v>0.3023255813953489</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>0.30232558139534887</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8561,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8584,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8607,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8739,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0.3421052631578946</v>
+        <v>0.34210526315789458</v>
       </c>
       <c r="G363">
-        <v>0.6578947368421053</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>1</v>
       </c>
       <c r="F364">
-        <v>0.3243243243243243</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="G364">
-        <v>0.6756756756756758</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>0.67567567567567577</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8785,13 +8803,13 @@
         <v>0</v>
       </c>
       <c r="F365">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="G365">
-        <v>0.2894736842105263</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8808,13 +8826,13 @@
         <v>1</v>
       </c>
       <c r="F366">
-        <v>0.2972972972972973</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="G366">
-        <v>0.7027027027027027</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>0.70270270270270274</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8837,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8860,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8883,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8906,7 +8924,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8929,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8975,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8998,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9067,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9090,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9130,13 +9148,13 @@
         <v>0</v>
       </c>
       <c r="F380">
-        <v>0.6764705882352942</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="G380">
-        <v>0.3235294117647058</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>0.32352941176470579</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9153,13 +9171,13 @@
         <v>0</v>
       </c>
       <c r="F381">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="G381">
-        <v>0.3142857142857143</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9176,13 +9194,13 @@
         <v>0</v>
       </c>
       <c r="F382">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G382">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9228,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9251,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9274,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9320,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9343,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9366,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9383,13 +9401,13 @@
         <v>1</v>
       </c>
       <c r="F391">
-        <v>0.4583333333333334</v>
+        <v>0.45833333333333343</v>
       </c>
       <c r="G391">
-        <v>0.5416666666666667</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>0.54166666666666674</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9412,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9435,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9481,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9504,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9527,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9550,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9573,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9590,13 +9608,13 @@
         <v>0</v>
       </c>
       <c r="F400">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G400">
-        <v>0.2972972972972973</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.29729729729729731</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9613,13 +9631,13 @@
         <v>0</v>
       </c>
       <c r="F401">
-        <v>0.368421052631579</v>
+        <v>0.36842105263157898</v>
       </c>
       <c r="G401">
-        <v>0.6315789473684211</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.63157894736842113</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9665,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9711,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9728,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="F406">
-        <v>0.3170731707317073</v>
+        <v>0.31707317073170732</v>
       </c>
       <c r="G406">
-        <v>0.6829268292682926</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
+        <v>0.68292682926829262</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9757,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9849,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9872,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9889,13 +9907,13 @@
         <v>1</v>
       </c>
       <c r="F413">
-        <v>0.282051282051282</v>
+        <v>0.28205128205128199</v>
       </c>
       <c r="G413">
-        <v>0.717948717948718</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.71794871794871795</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9912,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="F414">
-        <v>0.282051282051282</v>
+        <v>0.28205128205128199</v>
       </c>
       <c r="G414">
-        <v>0.717948717948718</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+        <v>0.71794871794871795</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9935,13 +9953,13 @@
         <v>1</v>
       </c>
       <c r="F415">
-        <v>0.2682926829268293</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="G415">
-        <v>0.7317073170731707</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
+        <v>0.73170731707317072</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9964,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9987,7 +10005,7 @@
         <v>0.2558139534883721</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10010,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10027,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="F419">
-        <v>0.2682926829268293</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="G419">
-        <v>0.7317073170731707</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+        <v>0.73170731707317072</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10050,13 +10068,13 @@
         <v>0</v>
       </c>
       <c r="F420">
-        <v>0.717948717948718</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="G420">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+        <v>0.28205128205128199</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10073,13 +10091,13 @@
         <v>1</v>
       </c>
       <c r="F421">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G421">
-        <v>0.2972972972972973</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+        <v>0.29729729729729731</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10102,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10125,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10148,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10194,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10211,13 +10229,13 @@
         <v>0</v>
       </c>
       <c r="F427">
-        <v>0.6829268292682926</v>
+        <v>0.68292682926829262</v>
       </c>
       <c r="G427">
-        <v>0.3170731707317073</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+        <v>0.31707317073170732</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10263,7 +10281,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10280,13 +10298,13 @@
         <v>1</v>
       </c>
       <c r="F430">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G430">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10309,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10326,13 +10344,13 @@
         <v>1</v>
       </c>
       <c r="F432">
-        <v>0.3409090909090909</v>
+        <v>0.34090909090909088</v>
       </c>
       <c r="G432">
-        <v>0.6590909090909091</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
+        <v>0.65909090909090906</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10355,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10372,13 +10390,13 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>0.3255813953488371</v>
+        <v>0.32558139534883712</v>
       </c>
       <c r="G434">
-        <v>0.6744186046511628</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+        <v>0.67441860465116277</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10401,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10418,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="F436">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G436">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10470,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10493,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10516,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10539,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10562,7 +10580,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10602,13 +10620,13 @@
         <v>1</v>
       </c>
       <c r="F444">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G444">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10631,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10654,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10677,7 +10695,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10694,13 +10712,13 @@
         <v>0</v>
       </c>
       <c r="F448">
-        <v>0.282051282051282</v>
+        <v>0.28205128205128199</v>
       </c>
       <c r="G448">
-        <v>0.717948717948718</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7">
+        <v>0.71794871794871795</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10723,7 +10741,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10746,7 +10764,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10763,13 +10781,13 @@
         <v>1</v>
       </c>
       <c r="F451">
-        <v>0.282051282051282</v>
+        <v>0.28205128205128199</v>
       </c>
       <c r="G451">
-        <v>0.717948717948718</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
+        <v>0.71794871794871795</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10792,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10815,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10838,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10884,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10901,13 +10919,13 @@
         <v>1</v>
       </c>
       <c r="F457">
-        <v>0.3421052631578946</v>
+        <v>0.34210526315789458</v>
       </c>
       <c r="G457">
-        <v>0.6578947368421053</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10930,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10947,13 +10965,13 @@
         <v>0</v>
       </c>
       <c r="F459">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G459">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10976,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10993,13 +11011,13 @@
         <v>1</v>
       </c>
       <c r="F461">
-        <v>0.3513513513513514</v>
+        <v>0.35135135135135143</v>
       </c>
       <c r="G461">
-        <v>0.6486486486486487</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11022,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11062,13 +11080,13 @@
         <v>0</v>
       </c>
       <c r="F464">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G464">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11108,13 +11126,13 @@
         <v>1</v>
       </c>
       <c r="F466">
-        <v>0.3157894736842105</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="G466">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11131,13 +11149,13 @@
         <v>0</v>
       </c>
       <c r="F467">
-        <v>0.3157894736842105</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="G467">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11154,13 +11172,13 @@
         <v>1</v>
       </c>
       <c r="F468">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G468">
-        <v>0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11183,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11200,13 +11218,13 @@
         <v>1</v>
       </c>
       <c r="F470">
-        <v>0.3055555555555556</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="G470">
-        <v>0.6944444444444444</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11229,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11252,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11275,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11298,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11344,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11390,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11413,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11436,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11459,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11482,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11505,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11528,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11551,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11574,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11597,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11620,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11643,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11666,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11689,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11712,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11735,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11752,13 +11770,13 @@
         <v>0</v>
       </c>
       <c r="F494">
-        <v>0.6666666666666665</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G494">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11781,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11804,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11827,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11844,13 +11862,13 @@
         <v>1</v>
       </c>
       <c r="F498">
-        <v>0.3235294117647058</v>
+        <v>0.32352941176470579</v>
       </c>
       <c r="G498">
-        <v>0.6764705882352942</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7">
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11867,13 +11885,13 @@
         <v>0</v>
       </c>
       <c r="F499">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G499">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11896,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11919,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11936,13 +11954,13 @@
         <v>0</v>
       </c>
       <c r="F502">
-        <v>0.2972972972972973</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="G502">
-        <v>0.7027027027027027</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7">
+        <v>0.70270270270270274</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11959,13 +11977,13 @@
         <v>1</v>
       </c>
       <c r="F503">
-        <v>0.3157894736842105</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="G503">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11982,18 +12000,18 @@
         <v>1</v>
       </c>
       <c r="F504">
-        <v>0.2972972972972973</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="G504">
-        <v>0.7027027027027027</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7">
+        <v>0.70270270270270274</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>45811.47916666666</v>
+        <v>45811.479166666657</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -12011,12 +12029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>45812.47916666666</v>
+        <v>45812.479166666657</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -12028,18 +12046,18 @@
         <v>0</v>
       </c>
       <c r="F506">
-        <v>0.2821</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="G506">
-        <v>0.7178999999999999</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
+        <v>0.71789999999999987</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>45813.47916666666</v>
+        <v>45813.479166666657</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -12051,18 +12069,18 @@
         <v>1</v>
       </c>
       <c r="F507">
-        <v>0.6486</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="G507">
-        <v>0.3514</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+        <v>0.35139999999999999</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>45814.47916666666</v>
+        <v>45814.479166666657</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -12074,18 +12092,18 @@
         <v>0</v>
       </c>
       <c r="F508">
-        <v>0.6389</v>
+        <v>0.63890000000000002</v>
       </c>
       <c r="G508">
-        <v>0.3611</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
+        <v>0.36109999999999998</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>45817.47916666666</v>
+        <v>45817.479166666657</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -12103,12 +12121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>45818.47916666666</v>
+        <v>45818.479166666657</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -12126,12 +12144,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>45819.47916666666</v>
+        <v>45819.479166666657</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -12149,12 +12167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>45820.47916666666</v>
+        <v>45820.479166666657</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -12172,12 +12190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>45821.47916666666</v>
+        <v>45821.479166666657</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -12195,12 +12213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -12218,12 +12236,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12241,12 +12259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12264,12 +12282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12287,12 +12305,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12310,12 +12328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12333,12 +12351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12356,12 +12374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D521">
         <v>0</v>

--- a/firebase_data_from_spyEnsembleEOE.xlsx
+++ b/firebase_data_from_spyEnsembleEOE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="627">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2246,7 +2252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2298,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2324,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2350,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2402,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2428,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2454,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2480,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2506,7 +2512,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2532,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2558,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2584,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2610,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2636,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2662,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2688,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2714,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2740,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2766,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2792,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2818,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2844,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2870,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2896,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2922,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2948,7 +2954,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2974,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3000,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3026,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3052,7 +3058,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H31" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3078,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3104,7 +3110,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H33" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3130,7 +3136,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H34" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3156,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3182,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3208,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3234,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3260,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3286,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3312,7 +3318,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H41" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3338,7 +3344,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H42" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3364,7 +3370,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H43" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3390,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3416,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3468,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3494,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3520,7 +3526,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H49" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3546,7 +3552,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H50" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3572,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3598,7 +3604,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3624,7 +3630,7 @@
         <v>0.35</v>
       </c>
       <c r="H53" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3650,7 +3656,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H54" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3676,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3702,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3728,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3754,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3780,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3806,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3832,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3858,7 +3864,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H62" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3884,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3910,7 +3916,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H64" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3936,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3962,7 +3968,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H66" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3988,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4014,7 +4020,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H68" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4040,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4066,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4092,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4118,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4144,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4170,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4196,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4222,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4248,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4274,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4300,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4326,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4352,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4378,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4404,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4430,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4456,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4482,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4508,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4534,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4560,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4586,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4612,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4638,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4664,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4690,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4716,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4742,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4768,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4794,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4820,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4846,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4872,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4898,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4924,7 +4930,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4950,7 +4956,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4976,7 +4982,7 @@
         <v>0.5</v>
       </c>
       <c r="H105" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5002,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5028,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5054,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5080,7 +5086,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H109" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5106,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5132,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5158,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5184,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5210,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5236,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5262,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5288,7 +5294,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H117" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5314,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5340,7 +5346,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H119" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5366,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5392,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5418,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5444,7 +5450,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H123" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5470,7 +5476,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H124" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5496,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5522,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5548,7 +5554,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H127" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5574,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5600,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5626,7 +5632,7 @@
         <v>0.36</v>
       </c>
       <c r="H130" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5652,7 +5658,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H131" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5678,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5704,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5730,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5756,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5782,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5808,7 +5814,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H137" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5834,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5860,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5886,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5912,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5938,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5964,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5990,7 +5996,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H144" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6016,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6042,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6068,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6094,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6120,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6146,7 +6152,7 @@
         <v>0.3658536585365855</v>
       </c>
       <c r="H150" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6172,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6198,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6224,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6250,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6276,7 +6282,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="H155" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6302,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6328,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6354,7 +6360,7 @@
         <v>0.375</v>
       </c>
       <c r="H158" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6380,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6406,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6432,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6458,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6484,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6510,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6536,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6562,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6588,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6614,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6640,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6666,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6692,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6718,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6744,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6770,7 +6776,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H174" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6796,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6822,7 +6828,7 @@
         <v>0.3469387755102041</v>
       </c>
       <c r="H176" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6848,7 +6854,7 @@
         <v>0.6808510638297873</v>
       </c>
       <c r="H177" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6874,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6900,7 +6906,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H179" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6926,7 +6932,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H180" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6952,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6978,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7004,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7030,7 +7036,7 @@
         <v>0.7</v>
       </c>
       <c r="H184" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7056,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7082,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7108,7 +7114,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H187" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7134,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7160,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7186,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7212,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7238,7 +7244,7 @@
         <v>0.52</v>
       </c>
       <c r="H192" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7264,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7290,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7316,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7342,7 +7348,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7368,7 +7374,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H197" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7394,7 +7400,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H198" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7420,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7446,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7472,7 +7478,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7498,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7524,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7550,7 +7556,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H204" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7576,7 +7582,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H205" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7602,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7628,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7654,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7680,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7706,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7732,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7758,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7784,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7810,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7836,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7862,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7888,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7914,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7940,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7966,7 +7972,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H220" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7992,7 +7998,7 @@
         <v>0.2888888888888889</v>
       </c>
       <c r="H221" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8018,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8044,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8070,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8096,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8122,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8148,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8174,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8200,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8226,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8252,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8278,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8304,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8330,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8356,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8382,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8408,7 +8414,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H237" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8434,7 +8440,7 @@
         <v>0.3617021276595745</v>
       </c>
       <c r="H238" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8460,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8486,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8512,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8538,7 +8544,7 @@
         <v>0.625</v>
       </c>
       <c r="H242" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8564,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8590,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8616,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8642,7 +8648,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8668,7 +8674,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H247" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8694,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8720,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8746,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8772,7 +8778,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H251" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8798,7 +8804,7 @@
         <v>0.64</v>
       </c>
       <c r="H252" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8824,7 +8830,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H253" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8850,7 +8856,7 @@
         <v>0.64</v>
       </c>
       <c r="H254" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8876,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8902,7 +8908,7 @@
         <v>0.3061224489795918</v>
       </c>
       <c r="H256" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8928,7 +8934,7 @@
         <v>0.3404255319148938</v>
       </c>
       <c r="H257" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8954,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8980,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9006,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9032,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9058,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9084,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9110,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9136,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9162,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9188,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9214,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9240,7 +9246,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H269" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9266,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9292,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9318,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9344,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9370,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9396,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9422,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9448,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9474,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9500,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9526,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9552,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9578,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9604,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9630,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9656,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9682,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9708,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9734,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9760,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9786,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9812,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9838,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9864,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9890,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9916,7 +9922,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H295" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9942,7 +9948,7 @@
         <v>0.35</v>
       </c>
       <c r="H296" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9968,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9994,7 +10000,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H298" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10020,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10046,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10072,7 +10078,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10098,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10124,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10150,7 +10156,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10176,7 +10182,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10202,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10228,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10254,7 +10260,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H308" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10280,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10306,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10332,7 +10338,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H311" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10358,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10384,7 +10390,7 @@
         <v>0.65</v>
       </c>
       <c r="H313" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10410,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10436,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10462,7 +10468,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H316" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10488,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10514,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10540,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10566,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10592,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10618,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10644,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10670,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10696,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10722,7 +10728,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H326" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10748,7 +10754,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10774,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10800,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10826,7 +10832,7 @@
         <v>0.4687499999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10852,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10878,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10904,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10930,7 +10936,7 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="H334" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10956,7 +10962,7 @@
         <v>0.25</v>
       </c>
       <c r="H335" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10982,7 +10988,7 @@
         <v>0.7551020408163267</v>
       </c>
       <c r="H336" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11008,7 +11014,7 @@
         <v>0.26</v>
       </c>
       <c r="H337" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11034,7 +11040,7 @@
         <v>0.3750000000000002</v>
       </c>
       <c r="H338" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11060,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11086,7 +11092,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="H340" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11112,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11138,7 +11144,7 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="H342" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11164,7 +11170,7 @@
         <v>0.66</v>
       </c>
       <c r="H343" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11190,7 +11196,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11216,7 +11222,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="H345" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11242,7 +11248,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H346" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11268,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11294,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11320,7 +11326,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H349" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11346,7 +11352,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H350" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11372,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11398,7 +11404,7 @@
         <v>0.3023255813953489</v>
       </c>
       <c r="H352" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11424,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11450,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11476,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11502,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11528,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11554,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11580,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11606,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11632,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11658,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11684,7 +11690,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H363" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11710,7 +11716,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H364" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11736,7 +11742,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H365" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11762,7 +11768,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H366" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11788,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11814,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11840,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11866,7 +11872,7 @@
         <v>0.5</v>
       </c>
       <c r="H370" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11892,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11918,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11944,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11970,7 +11976,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11996,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12022,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12048,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12074,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12100,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12126,7 +12132,7 @@
         <v>0.3235294117647058</v>
       </c>
       <c r="H380" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12152,7 +12158,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H381" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12178,7 +12184,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H382" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12204,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12230,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12256,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12282,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12308,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12334,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12360,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12386,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12412,7 +12418,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H391" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12438,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12464,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12490,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12516,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12542,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12568,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12594,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12620,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12646,7 +12652,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H400" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12672,7 +12678,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H401" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12698,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12724,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12750,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12776,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12802,7 +12808,7 @@
         <v>0.6829268292682926</v>
       </c>
       <c r="H406" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12828,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12854,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12880,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12906,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12932,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12958,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12984,7 +12990,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H413" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13010,7 +13016,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H414" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13036,7 +13042,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H415" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13062,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13088,7 +13094,7 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="H417" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13114,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13140,7 +13146,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H419" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13166,7 +13172,7 @@
         <v>0.282051282051282</v>
       </c>
       <c r="H420" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13192,7 +13198,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H421" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13218,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13244,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13270,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13296,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13322,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13348,7 +13354,7 @@
         <v>0.3170731707317073</v>
       </c>
       <c r="H427" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13374,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13400,7 +13406,7 @@
         <v>0.65</v>
       </c>
       <c r="H429" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13426,7 +13432,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H430" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13452,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13478,7 +13484,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H432" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13504,7 +13510,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13530,7 +13536,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H434" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13556,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13582,7 +13588,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13608,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13634,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13660,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13686,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13712,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13738,7 +13744,7 @@
         <v>0.35</v>
       </c>
       <c r="H442" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13764,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13790,7 +13796,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H444" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13816,7 +13822,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13842,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13868,7 +13874,7 @@
         <v>0.3</v>
       </c>
       <c r="H447" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13894,7 +13900,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H448" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13920,7 +13926,7 @@
         <v>0.7</v>
       </c>
       <c r="H449" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13946,7 +13952,7 @@
         <v>0.7</v>
       </c>
       <c r="H450" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13972,7 +13978,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H451" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13998,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14024,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14050,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14076,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14102,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14128,7 +14134,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H457" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14154,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14180,7 +14186,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14206,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14232,7 +14238,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H461" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14258,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14284,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14310,7 +14316,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H464" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14336,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14362,7 +14368,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H466" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14388,7 +14394,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H467" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14414,7 +14420,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H468" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14440,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14466,7 +14472,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H470" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14492,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14518,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14544,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14570,7 +14576,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14596,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14622,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14648,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14674,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14700,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14726,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14752,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14778,7 +14784,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14804,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14830,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14856,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14882,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14908,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14934,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14960,7 +14966,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14986,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15012,7 +15018,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15038,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15064,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15090,7 +15096,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15116,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15142,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15168,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15194,7 +15200,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H498" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15220,7 +15226,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H499" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15246,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15272,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15298,7 +15304,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15324,7 +15330,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H503" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15350,7 +15356,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15376,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15402,7 +15408,7 @@
         <v>0.7178999999999999</v>
       </c>
       <c r="H506" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15428,7 +15434,7 @@
         <v>0.3514</v>
       </c>
       <c r="H507" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15454,7 +15460,7 @@
         <v>0.3611</v>
       </c>
       <c r="H508" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15480,7 +15486,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15506,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="H510" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15532,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15558,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15584,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15610,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15636,7 +15642,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15662,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15688,7 +15694,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15714,7 +15720,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15740,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15766,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15792,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15818,7 +15824,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15844,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15870,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15896,7 +15902,7 @@
         <v>0.5417</v>
       </c>
       <c r="H525" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15922,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15948,7 +15954,7 @@
         <v>0.5417</v>
       </c>
       <c r="H527" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15974,7 +15980,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16000,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16026,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16052,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16078,7 +16084,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16104,7 +16110,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16130,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16156,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16182,7 +16188,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16208,7 +16214,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16234,7 +16240,7 @@
         <v>0.6944</v>
       </c>
       <c r="H538" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16260,7 +16266,7 @@
         <v>0.3243</v>
       </c>
       <c r="H539" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16286,7 +16292,7 @@
         <v>0.7027</v>
       </c>
       <c r="H540" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16312,7 +16318,7 @@
         <v>0.3514</v>
       </c>
       <c r="H541" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16338,7 +16344,7 @@
         <v>0.6757</v>
       </c>
       <c r="H542" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16364,7 +16370,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H543" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16390,7 +16396,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16416,7 +16422,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16442,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16468,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16494,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16520,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16546,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16572,7 +16578,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16598,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16624,7 +16630,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16650,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16676,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16702,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16728,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16754,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16780,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16806,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16832,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16842,9 +16848,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>1</v>
       </c>
@@ -16852,7 +16864,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleEOE.xlsx
+++ b/firebase_data_from_spyEnsembleEOE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="629">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2252,7 +2258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2304,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2356,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2382,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2408,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2460,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2512,7 +2518,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2538,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2564,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2590,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2616,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2642,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2694,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2720,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2746,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2798,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2824,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2850,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2902,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2928,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2954,7 +2960,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H27" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2980,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3006,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3032,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3058,7 +3064,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H31" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3084,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3110,7 +3116,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H33" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3136,7 +3142,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H34" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3162,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3188,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3214,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3240,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3266,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3292,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3318,7 +3324,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H41" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3344,7 +3350,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H42" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3370,7 +3376,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H43" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3396,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3422,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3448,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3474,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3500,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3526,7 +3532,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H49" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3552,7 +3558,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H50" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3578,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3604,7 +3610,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3630,7 +3636,7 @@
         <v>0.35</v>
       </c>
       <c r="H53" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3656,7 +3662,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H54" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3682,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3708,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3734,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3760,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3812,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3838,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3864,7 +3870,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H62" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3890,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3916,7 +3922,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H64" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3942,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3968,7 +3974,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H66" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3994,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4020,7 +4026,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H68" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4046,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4072,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4098,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4124,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4150,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4176,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4202,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4228,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4254,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4280,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4306,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4332,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4358,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4384,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4410,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4436,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4462,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4488,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4514,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4540,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4566,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4592,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4618,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4644,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4670,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4696,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4722,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4748,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4774,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4800,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4826,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4852,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4878,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4904,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4930,7 +4936,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4956,7 +4962,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H104" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4982,7 +4988,7 @@
         <v>0.5</v>
       </c>
       <c r="H105" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5008,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5034,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5060,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5086,7 +5092,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H109" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5112,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5138,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5164,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5190,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5216,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5242,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5268,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5294,7 +5300,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H117" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5320,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5346,7 +5352,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H119" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5372,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5398,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5424,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5450,7 +5456,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H123" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5476,7 +5482,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H124" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5502,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5528,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5554,7 +5560,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H127" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5580,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5606,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5632,7 +5638,7 @@
         <v>0.36</v>
       </c>
       <c r="H130" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5658,7 +5664,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H131" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5684,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5710,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5736,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5762,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5788,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5814,7 +5820,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H137" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5840,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5866,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5892,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5918,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5944,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5970,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5996,7 +6002,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H144" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6022,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6048,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6074,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6100,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6126,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6152,7 +6158,7 @@
         <v>0.3658536585365855</v>
       </c>
       <c r="H150" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6178,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6204,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6230,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6256,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6282,7 +6288,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="H155" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6308,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6334,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6360,7 +6366,7 @@
         <v>0.375</v>
       </c>
       <c r="H158" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6386,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6412,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6438,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6464,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6490,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6516,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6542,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6568,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6594,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6620,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6646,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6672,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6698,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6724,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6750,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6776,7 +6782,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H174" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6802,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6828,7 +6834,7 @@
         <v>0.3469387755102041</v>
       </c>
       <c r="H176" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6854,7 +6860,7 @@
         <v>0.6808510638297873</v>
       </c>
       <c r="H177" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6880,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6906,7 +6912,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H179" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6932,7 +6938,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H180" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6958,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6984,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7010,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7036,7 +7042,7 @@
         <v>0.7</v>
       </c>
       <c r="H184" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7062,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7088,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7114,7 +7120,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H187" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7140,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7166,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7192,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7218,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7244,7 +7250,7 @@
         <v>0.52</v>
       </c>
       <c r="H192" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7270,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7296,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7322,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7348,7 +7354,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7374,7 +7380,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H197" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7400,7 +7406,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H198" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7426,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7452,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7478,7 +7484,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7504,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7530,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7556,7 +7562,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H204" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7582,7 +7588,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H205" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7608,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7634,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7660,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7686,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7712,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7738,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7764,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7790,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7816,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7842,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7868,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7894,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7920,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7946,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7972,7 +7978,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H220" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7998,7 +8004,7 @@
         <v>0.2888888888888889</v>
       </c>
       <c r="H221" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8024,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8050,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8076,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8102,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8128,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8154,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8180,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8206,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8232,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8258,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8284,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8310,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8336,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8362,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8388,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8414,7 +8420,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H237" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8440,7 +8446,7 @@
         <v>0.3617021276595745</v>
       </c>
       <c r="H238" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8466,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8492,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8518,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8544,7 +8550,7 @@
         <v>0.625</v>
       </c>
       <c r="H242" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8570,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8596,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8622,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8648,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8674,7 +8680,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H247" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8700,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8726,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8752,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8778,7 +8784,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H251" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8804,7 +8810,7 @@
         <v>0.64</v>
       </c>
       <c r="H252" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8830,7 +8836,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H253" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8856,7 +8862,7 @@
         <v>0.64</v>
       </c>
       <c r="H254" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8882,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8908,7 +8914,7 @@
         <v>0.3061224489795918</v>
       </c>
       <c r="H256" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8934,7 +8940,7 @@
         <v>0.3404255319148938</v>
       </c>
       <c r="H257" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8960,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8986,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9012,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9038,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9064,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9090,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9116,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9142,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9168,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9194,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9220,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9246,7 +9252,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H269" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9272,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9298,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9324,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9350,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9376,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9402,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9428,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9454,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9480,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9506,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9532,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9558,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9584,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9610,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9636,7 +9642,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9662,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9688,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9714,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9740,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9766,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9792,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9818,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9844,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9870,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9896,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9922,7 +9928,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H295" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9948,7 +9954,7 @@
         <v>0.35</v>
       </c>
       <c r="H296" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9974,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10000,7 +10006,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H298" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10026,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10052,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10078,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10104,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10130,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10156,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10182,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10208,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10234,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10260,7 +10266,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H308" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10286,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10312,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10338,7 +10344,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H311" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10364,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10390,7 +10396,7 @@
         <v>0.65</v>
       </c>
       <c r="H313" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10416,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10442,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10468,7 +10474,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H316" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10494,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10520,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10546,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10572,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10598,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10624,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10650,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10676,7 +10682,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10702,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10728,7 +10734,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H326" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10754,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10780,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10806,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10832,7 +10838,7 @@
         <v>0.4687499999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10858,7 +10864,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10884,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10910,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10936,7 +10942,7 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="H334" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10962,7 +10968,7 @@
         <v>0.25</v>
       </c>
       <c r="H335" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10988,7 +10994,7 @@
         <v>0.7551020408163267</v>
       </c>
       <c r="H336" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11014,7 +11020,7 @@
         <v>0.26</v>
       </c>
       <c r="H337" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11040,7 +11046,7 @@
         <v>0.3750000000000002</v>
       </c>
       <c r="H338" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11066,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11092,7 +11098,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="H340" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11118,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11144,7 +11150,7 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="H342" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11170,7 +11176,7 @@
         <v>0.66</v>
       </c>
       <c r="H343" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11196,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11222,7 +11228,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="H345" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11248,7 +11254,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H346" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11274,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11300,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11326,7 +11332,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H349" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11352,7 +11358,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H350" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11378,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11404,7 +11410,7 @@
         <v>0.3023255813953489</v>
       </c>
       <c r="H352" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11430,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11456,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11482,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11508,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11534,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11560,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11586,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11612,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11638,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11664,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11690,7 +11696,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H363" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11716,7 +11722,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H364" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11742,7 +11748,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H365" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11768,7 +11774,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H366" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11794,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11820,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11846,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11872,7 +11878,7 @@
         <v>0.5</v>
       </c>
       <c r="H370" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11898,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11924,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11950,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11976,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12002,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12028,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12054,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12080,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12106,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12132,7 +12138,7 @@
         <v>0.3235294117647058</v>
       </c>
       <c r="H380" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12158,7 +12164,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H381" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12184,7 +12190,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H382" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12210,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12236,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12262,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12288,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12314,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12340,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12366,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12392,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12418,7 +12424,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H391" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12444,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12470,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12496,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12522,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12548,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12574,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12600,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12626,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12652,7 +12658,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H400" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12678,7 +12684,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H401" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12704,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12730,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12756,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12782,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12808,7 +12814,7 @@
         <v>0.6829268292682926</v>
       </c>
       <c r="H406" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12834,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12860,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12886,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12912,7 +12918,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12938,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12964,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12990,7 +12996,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H413" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13016,7 +13022,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H414" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13042,7 +13048,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H415" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13068,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13094,7 +13100,7 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="H417" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13120,7 +13126,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13146,7 +13152,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H419" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13172,7 +13178,7 @@
         <v>0.282051282051282</v>
       </c>
       <c r="H420" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13198,7 +13204,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H421" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13224,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13250,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13276,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13302,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13328,7 +13334,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13354,7 +13360,7 @@
         <v>0.3170731707317073</v>
       </c>
       <c r="H427" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13380,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13406,7 +13412,7 @@
         <v>0.65</v>
       </c>
       <c r="H429" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13432,7 +13438,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H430" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13458,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13484,7 +13490,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H432" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13510,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13536,7 +13542,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H434" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13562,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13588,7 +13594,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13614,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13640,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13666,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13692,7 +13698,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13718,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13744,7 +13750,7 @@
         <v>0.35</v>
       </c>
       <c r="H442" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13770,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13796,7 +13802,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H444" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13822,7 +13828,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13848,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13874,7 +13880,7 @@
         <v>0.3</v>
       </c>
       <c r="H447" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13900,7 +13906,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H448" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13926,7 +13932,7 @@
         <v>0.7</v>
       </c>
       <c r="H449" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13952,7 +13958,7 @@
         <v>0.7</v>
       </c>
       <c r="H450" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13978,7 +13984,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H451" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14004,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14030,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14056,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14082,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14108,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14134,7 +14140,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H457" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14160,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14186,7 +14192,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14212,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14238,7 +14244,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H461" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14264,7 +14270,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14290,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14316,7 +14322,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H464" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14342,7 +14348,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14368,7 +14374,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H466" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14394,7 +14400,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H467" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14420,7 +14426,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H468" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14446,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14472,7 +14478,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H470" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14498,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14524,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14550,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14576,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14602,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14628,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14654,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14680,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14706,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14732,7 +14738,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14758,7 +14764,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14784,7 +14790,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14810,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14836,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14862,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14888,7 +14894,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14914,7 +14920,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14940,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14966,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14992,7 +14998,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15018,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15044,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15070,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15096,7 +15102,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15122,7 +15128,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15148,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15174,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15200,7 +15206,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H498" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15226,7 +15232,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H499" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15252,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15278,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15304,7 +15310,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H502" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15330,7 +15336,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H503" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15356,7 +15362,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15382,7 +15388,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15408,7 +15414,7 @@
         <v>0.7178999999999999</v>
       </c>
       <c r="H506" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15434,7 +15440,7 @@
         <v>0.3514</v>
       </c>
       <c r="H507" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15460,7 +15466,7 @@
         <v>0.3611</v>
       </c>
       <c r="H508" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15486,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15512,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="H510" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15538,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15564,7 +15570,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15590,7 +15596,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15616,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15642,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15668,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15694,7 +15700,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15720,7 +15726,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15746,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15772,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15798,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15824,7 +15830,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15850,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15876,7 +15882,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15902,7 +15908,7 @@
         <v>0.5417</v>
       </c>
       <c r="H525" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15928,7 +15934,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15954,7 +15960,7 @@
         <v>0.5417</v>
       </c>
       <c r="H527" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15980,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16006,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16032,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16058,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16084,7 +16090,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16110,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16136,7 +16142,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16162,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16188,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16214,7 +16220,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16240,7 +16246,7 @@
         <v>0.6944</v>
       </c>
       <c r="H538" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16266,7 +16272,7 @@
         <v>0.3243</v>
       </c>
       <c r="H539" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16292,7 +16298,7 @@
         <v>0.7027</v>
       </c>
       <c r="H540" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16318,7 +16324,7 @@
         <v>0.3514</v>
       </c>
       <c r="H541" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16344,7 +16350,7 @@
         <v>0.6757</v>
       </c>
       <c r="H542" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16370,7 +16376,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H543" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16396,7 +16402,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16422,7 +16428,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16448,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16474,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16500,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16526,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16552,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16578,7 +16584,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16604,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16630,7 +16636,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16656,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16682,7 +16688,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16708,7 +16714,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16734,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16760,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16786,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16812,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16838,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16864,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16890,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16900,9 +16906,15 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
         <v>0</v>
       </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
       <c r="F564">
         <v>1</v>
       </c>
@@ -16910,7 +16922,53 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0.5</v>
+      </c>
+      <c r="G565">
+        <v>0.5</v>
+      </c>
+      <c r="H565" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
         <v>571</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0.5</v>
+      </c>
+      <c r="G566">
+        <v>0.5</v>
+      </c>
+      <c r="H566" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleEOE.xlsx
+++ b/firebase_data_from_spyEnsembleEOE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="635">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2258,7 +2276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2310,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2336,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2362,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2388,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2414,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2440,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2466,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2492,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2518,7 +2536,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H10" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2544,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2570,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2596,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2622,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2648,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2674,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2700,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2726,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2752,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2778,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2804,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2830,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2856,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2882,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2908,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2934,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2960,7 +2978,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H27" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2986,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3012,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3038,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3064,7 +3082,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H31" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3090,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3116,7 +3134,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H33" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3142,7 +3160,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H34" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3168,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3194,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3220,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3246,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3272,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3298,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3324,7 +3342,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H41" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3350,7 +3368,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H42" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3376,7 +3394,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H43" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3402,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3428,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3454,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3480,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3506,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3532,7 +3550,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H49" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3558,7 +3576,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H50" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3584,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3610,7 +3628,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3636,7 +3654,7 @@
         <v>0.35</v>
       </c>
       <c r="H53" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3662,7 +3680,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H54" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3688,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3714,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3740,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3766,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3792,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3818,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3844,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3870,7 +3888,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H62" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3896,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3922,7 +3940,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H64" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3948,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3974,7 +3992,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4000,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4026,7 +4044,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H68" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4052,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4078,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4104,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4130,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4156,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4182,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4208,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4234,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4286,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4312,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4338,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4364,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4390,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4416,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4442,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4468,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4494,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4520,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4546,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4572,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4598,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4624,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4650,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4676,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4702,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4728,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4754,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4780,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4806,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4832,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4858,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4884,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4910,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4936,7 +4954,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4962,7 +4980,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H104" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4988,7 +5006,7 @@
         <v>0.5</v>
       </c>
       <c r="H105" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5014,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5040,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5066,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5092,7 +5110,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H109" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5118,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5144,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5170,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5196,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5222,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5248,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5274,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5300,7 +5318,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H117" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5326,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5352,7 +5370,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H119" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5378,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5404,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5430,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5456,7 +5474,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H123" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5482,7 +5500,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H124" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5508,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5534,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5560,7 +5578,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H127" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5586,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5612,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5638,7 +5656,7 @@
         <v>0.36</v>
       </c>
       <c r="H130" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5664,7 +5682,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H131" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5690,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5716,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5742,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5768,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5794,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5820,7 +5838,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H137" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5846,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5872,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5898,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5924,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5950,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5976,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6002,7 +6020,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H144" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6028,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6054,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6080,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6106,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6132,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6158,7 +6176,7 @@
         <v>0.3658536585365855</v>
       </c>
       <c r="H150" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6184,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6210,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6236,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6262,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6288,7 +6306,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="H155" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6314,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6340,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6366,7 +6384,7 @@
         <v>0.375</v>
       </c>
       <c r="H158" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6392,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6418,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6444,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6470,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6496,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6522,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6548,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6574,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6600,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6626,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6652,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6678,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6704,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6730,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6756,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6782,7 +6800,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H174" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6808,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6834,7 +6852,7 @@
         <v>0.3469387755102041</v>
       </c>
       <c r="H176" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6860,7 +6878,7 @@
         <v>0.6808510638297873</v>
       </c>
       <c r="H177" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6886,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6912,7 +6930,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H179" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6938,7 +6956,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H180" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6964,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6990,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7016,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7042,7 +7060,7 @@
         <v>0.7</v>
       </c>
       <c r="H184" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7068,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7094,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7120,7 +7138,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H187" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7146,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7172,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7198,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7224,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7250,7 +7268,7 @@
         <v>0.52</v>
       </c>
       <c r="H192" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7276,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7302,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7328,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7354,7 +7372,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7380,7 +7398,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H197" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7406,7 +7424,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H198" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7432,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7458,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7484,7 +7502,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7510,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7536,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7562,7 +7580,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H204" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7588,7 +7606,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H205" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7614,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7640,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7666,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7692,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7718,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7744,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7770,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7796,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7822,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7848,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7874,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7900,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7926,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7952,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7978,7 +7996,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H220" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8004,7 +8022,7 @@
         <v>0.2888888888888889</v>
       </c>
       <c r="H221" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8030,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8056,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8082,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8108,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8134,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8160,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8186,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8212,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8238,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8264,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8290,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8316,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8342,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8368,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8394,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8420,7 +8438,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H237" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8446,7 +8464,7 @@
         <v>0.3617021276595745</v>
       </c>
       <c r="H238" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8472,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8498,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8524,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8550,7 +8568,7 @@
         <v>0.625</v>
       </c>
       <c r="H242" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8576,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8602,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8628,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8654,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8680,7 +8698,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H247" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8706,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8732,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8758,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8784,7 +8802,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H251" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8810,7 +8828,7 @@
         <v>0.64</v>
       </c>
       <c r="H252" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8836,7 +8854,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H253" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8862,7 +8880,7 @@
         <v>0.64</v>
       </c>
       <c r="H254" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8888,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8914,7 +8932,7 @@
         <v>0.3061224489795918</v>
       </c>
       <c r="H256" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8940,7 +8958,7 @@
         <v>0.3404255319148938</v>
       </c>
       <c r="H257" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8966,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8992,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9018,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9044,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9070,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9096,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9122,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9148,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9174,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9200,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9226,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9252,7 +9270,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H269" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9278,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9304,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9330,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9356,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9382,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9408,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9434,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9460,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9486,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9512,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9538,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9564,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9590,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9616,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9642,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9668,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9694,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9720,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9746,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9772,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9798,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9824,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9850,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9876,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9902,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9928,7 +9946,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H295" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9954,7 +9972,7 @@
         <v>0.35</v>
       </c>
       <c r="H296" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9980,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10006,7 +10024,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H298" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10032,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10058,7 +10076,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10084,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10110,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10136,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10162,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10188,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10214,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10240,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10266,7 +10284,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H308" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10292,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10318,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10344,7 +10362,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H311" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10370,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10396,7 +10414,7 @@
         <v>0.65</v>
       </c>
       <c r="H313" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10422,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10448,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10474,7 +10492,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H316" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10500,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10526,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10552,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10578,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10604,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10630,7 +10648,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10656,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10682,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10708,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10734,7 +10752,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H326" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10760,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10786,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10812,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10838,7 +10856,7 @@
         <v>0.4687499999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10864,7 +10882,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10890,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10916,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10942,7 +10960,7 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="H334" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10968,7 +10986,7 @@
         <v>0.25</v>
       </c>
       <c r="H335" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10994,7 +11012,7 @@
         <v>0.7551020408163267</v>
       </c>
       <c r="H336" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11020,7 +11038,7 @@
         <v>0.26</v>
       </c>
       <c r="H337" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11046,7 +11064,7 @@
         <v>0.3750000000000002</v>
       </c>
       <c r="H338" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11072,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11098,7 +11116,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="H340" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11124,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11150,7 +11168,7 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="H342" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11176,7 +11194,7 @@
         <v>0.66</v>
       </c>
       <c r="H343" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11202,7 +11220,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11228,7 +11246,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="H345" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11254,7 +11272,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H346" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11280,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11306,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11332,7 +11350,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H349" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11358,7 +11376,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H350" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11384,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11410,7 +11428,7 @@
         <v>0.3023255813953489</v>
       </c>
       <c r="H352" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11436,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11462,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11488,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11514,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11540,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11566,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11592,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11618,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11644,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11670,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11696,7 +11714,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H363" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11722,7 +11740,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H364" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11748,7 +11766,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H365" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11774,7 +11792,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H366" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11800,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11826,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11852,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11878,7 +11896,7 @@
         <v>0.5</v>
       </c>
       <c r="H370" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11904,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11930,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11956,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11982,7 +12000,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12008,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12034,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12060,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12086,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12112,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12138,7 +12156,7 @@
         <v>0.3235294117647058</v>
       </c>
       <c r="H380" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12164,7 +12182,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H381" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12190,7 +12208,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H382" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12216,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12242,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12268,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12294,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12320,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12346,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12372,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12398,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12424,7 +12442,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H391" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12450,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12476,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12502,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12528,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12554,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12580,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12606,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12632,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12658,7 +12676,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H400" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12684,7 +12702,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H401" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12710,7 +12728,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12736,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12762,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12788,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12814,7 +12832,7 @@
         <v>0.6829268292682926</v>
       </c>
       <c r="H406" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12840,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12866,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12892,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12918,7 +12936,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12944,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12970,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12996,7 +13014,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H413" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13022,7 +13040,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H414" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13048,7 +13066,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H415" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13074,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13100,7 +13118,7 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="H417" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13126,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13152,7 +13170,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H419" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13178,7 +13196,7 @@
         <v>0.282051282051282</v>
       </c>
       <c r="H420" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13204,7 +13222,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H421" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13230,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13256,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13282,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13308,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13334,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13360,7 +13378,7 @@
         <v>0.3170731707317073</v>
       </c>
       <c r="H427" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13386,7 +13404,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13412,7 +13430,7 @@
         <v>0.65</v>
       </c>
       <c r="H429" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13438,7 +13456,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H430" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13464,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13490,7 +13508,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H432" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13516,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13542,7 +13560,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H434" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13568,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13594,7 +13612,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13620,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13646,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13672,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13698,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13724,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13750,7 +13768,7 @@
         <v>0.35</v>
       </c>
       <c r="H442" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13776,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13802,7 +13820,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H444" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13828,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13854,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13880,7 +13898,7 @@
         <v>0.3</v>
       </c>
       <c r="H447" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13906,7 +13924,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H448" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13932,7 +13950,7 @@
         <v>0.7</v>
       </c>
       <c r="H449" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13958,7 +13976,7 @@
         <v>0.7</v>
       </c>
       <c r="H450" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13984,7 +14002,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H451" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14010,7 +14028,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14036,7 +14054,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14062,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14088,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14114,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14140,7 +14158,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H457" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14166,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14192,7 +14210,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14218,7 +14236,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14244,7 +14262,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H461" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14270,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14296,7 +14314,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14322,7 +14340,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H464" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14348,7 +14366,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14374,7 +14392,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14400,7 +14418,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H467" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14426,7 +14444,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H468" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14452,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14478,7 +14496,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H470" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14504,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14530,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14556,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14582,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14608,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14634,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14660,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14686,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14712,7 +14730,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14738,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14764,7 +14782,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14790,7 +14808,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14816,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14842,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14868,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14894,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14920,7 +14938,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14946,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14972,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14998,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15024,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15050,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15076,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15102,7 +15120,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15128,7 +15146,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15154,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15180,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15206,7 +15224,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H498" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15232,7 +15250,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H499" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15258,7 +15276,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15284,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15310,7 +15328,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H502" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15336,7 +15354,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H503" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15362,7 +15380,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H504" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15388,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15414,7 +15432,7 @@
         <v>0.7178999999999999</v>
       </c>
       <c r="H506" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15440,7 +15458,7 @@
         <v>0.3514</v>
       </c>
       <c r="H507" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15466,7 +15484,7 @@
         <v>0.3611</v>
       </c>
       <c r="H508" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15492,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15518,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="H510" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15544,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15570,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15596,7 +15614,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15622,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15648,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15674,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15700,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15726,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15752,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15778,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15804,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15830,7 +15848,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15856,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15882,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15908,7 +15926,7 @@
         <v>0.5417</v>
       </c>
       <c r="H525" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15934,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15960,7 +15978,7 @@
         <v>0.5417</v>
       </c>
       <c r="H527" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15986,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16012,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16038,7 +16056,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16064,7 +16082,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16090,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16116,7 +16134,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16142,7 +16160,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16168,7 +16186,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16194,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16220,7 +16238,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16246,7 +16264,7 @@
         <v>0.6944</v>
       </c>
       <c r="H538" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16272,7 +16290,7 @@
         <v>0.3243</v>
       </c>
       <c r="H539" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16298,7 +16316,7 @@
         <v>0.7027</v>
       </c>
       <c r="H540" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16324,7 +16342,7 @@
         <v>0.3514</v>
       </c>
       <c r="H541" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16350,7 +16368,7 @@
         <v>0.6757</v>
       </c>
       <c r="H542" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16376,7 +16394,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H543" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16402,7 +16420,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16428,7 +16446,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16454,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16480,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16506,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16532,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16558,7 +16576,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16584,7 +16602,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16610,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16636,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16662,7 +16680,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16688,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16714,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16740,7 +16758,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16766,7 +16784,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16792,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16818,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16844,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16870,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16896,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16922,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16948,7 +16966,7 @@
         <v>0.5</v>
       </c>
       <c r="H565" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16958,8 +16976,14 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>0</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
       </c>
       <c r="F566">
         <v>0.5</v>
@@ -16968,7 +16992,157 @@
         <v>0.5</v>
       </c>
       <c r="H566" t="s">
-        <v>584</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleEOE.xlsx
+++ b/firebase_data_from_spyEnsembleEOE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="637">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2276,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2328,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2354,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2380,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2406,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2432,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2458,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2484,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2510,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2536,7 +2542,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H10" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2562,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2588,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2614,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2640,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2666,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2692,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2718,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2744,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2770,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2796,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2822,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2848,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2874,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2900,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2926,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2952,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2978,7 +2984,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H27" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3004,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3030,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3056,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3082,7 +3088,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H31" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3108,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3134,7 +3140,7 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="H33" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3160,7 +3166,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H34" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3186,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3212,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3238,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3264,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3290,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3316,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3342,7 +3348,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H41" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3368,7 +3374,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="H42" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3394,7 +3400,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H43" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3420,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3446,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3472,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3498,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3524,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3550,7 +3556,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H49" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3576,7 +3582,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H50" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3602,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3628,7 +3634,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H52" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3654,7 +3660,7 @@
         <v>0.35</v>
       </c>
       <c r="H53" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3680,7 +3686,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H54" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3706,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3732,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3784,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3810,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3836,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3862,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3888,7 +3894,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H62" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3914,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3940,7 +3946,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H64" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3966,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3992,7 +3998,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H66" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4018,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4044,7 +4050,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H68" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4070,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4096,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4122,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4148,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4174,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4200,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4226,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4252,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4278,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4304,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4330,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4356,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4382,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4408,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4434,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4460,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4486,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4512,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4538,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4564,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4590,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4616,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4642,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4668,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4694,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4720,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4746,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4772,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4798,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4824,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4850,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4876,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4902,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4928,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4954,7 +4960,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H103" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4980,7 +4986,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H104" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5006,7 +5012,7 @@
         <v>0.5</v>
       </c>
       <c r="H105" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5032,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5058,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5084,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5110,7 +5116,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H109" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5136,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5162,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5188,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5214,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5240,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5266,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5292,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5318,7 +5324,7 @@
         <v>0.6585365853658537</v>
       </c>
       <c r="H117" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5344,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5370,7 +5376,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H119" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5396,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5422,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5448,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5474,7 +5480,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H123" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5500,7 +5506,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H124" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5526,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5552,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5578,7 +5584,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H127" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5604,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5630,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5656,7 +5662,7 @@
         <v>0.36</v>
       </c>
       <c r="H130" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5682,7 +5688,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H131" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5708,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5734,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5760,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5786,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5812,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5838,7 +5844,7 @@
         <v>0.7083333333333335</v>
       </c>
       <c r="H137" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5864,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5890,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5916,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5942,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5968,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5994,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6020,7 +6026,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H144" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6046,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6072,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6098,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6124,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6150,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6176,7 +6182,7 @@
         <v>0.3658536585365855</v>
       </c>
       <c r="H150" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6202,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6228,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6254,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6280,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6306,7 +6312,7 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="H155" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6332,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6358,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6384,7 +6390,7 @@
         <v>0.375</v>
       </c>
       <c r="H158" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6410,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6436,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6462,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6488,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6514,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6540,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6566,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6592,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6618,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6644,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6670,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6696,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6722,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6748,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6774,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6800,7 +6806,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H174" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6826,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6852,7 +6858,7 @@
         <v>0.3469387755102041</v>
       </c>
       <c r="H176" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6878,7 +6884,7 @@
         <v>0.6808510638297873</v>
       </c>
       <c r="H177" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6904,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6930,7 +6936,7 @@
         <v>0.6888888888888889</v>
       </c>
       <c r="H179" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6956,7 +6962,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H180" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6982,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7008,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7034,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7060,7 +7066,7 @@
         <v>0.7</v>
       </c>
       <c r="H184" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7086,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7112,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7138,7 +7144,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H187" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7164,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7190,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7216,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7242,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7268,7 +7274,7 @@
         <v>0.52</v>
       </c>
       <c r="H192" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7294,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7320,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7346,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7372,7 +7378,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7398,7 +7404,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H197" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7424,7 +7430,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H198" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7450,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7476,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7502,7 +7508,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H201" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7528,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7554,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7580,7 +7586,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H204" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7606,7 +7612,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H205" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7632,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7658,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7684,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7710,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7736,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7762,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7788,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7814,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7840,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7866,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7892,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7918,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7944,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7970,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7996,7 +8002,7 @@
         <v>0.3181818181818182</v>
       </c>
       <c r="H220" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8022,7 +8028,7 @@
         <v>0.2888888888888889</v>
       </c>
       <c r="H221" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8048,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8074,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8100,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8126,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8152,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8178,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8204,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8230,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8256,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8282,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8308,7 +8314,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8334,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8360,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8386,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8412,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8438,7 +8444,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="H237" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8464,7 +8470,7 @@
         <v>0.3617021276595745</v>
       </c>
       <c r="H238" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8490,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8516,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8542,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8568,7 +8574,7 @@
         <v>0.625</v>
       </c>
       <c r="H242" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8594,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8620,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8646,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8672,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8698,7 +8704,7 @@
         <v>0.673469387755102</v>
       </c>
       <c r="H247" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8724,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8750,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8776,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8802,7 +8808,7 @@
         <v>0.3137254901960784</v>
       </c>
       <c r="H251" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8828,7 +8834,7 @@
         <v>0.64</v>
       </c>
       <c r="H252" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8854,7 +8860,7 @@
         <v>0.653061224489796</v>
       </c>
       <c r="H253" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8880,7 +8886,7 @@
         <v>0.64</v>
       </c>
       <c r="H254" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8906,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8932,7 +8938,7 @@
         <v>0.3061224489795918</v>
       </c>
       <c r="H256" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8958,7 +8964,7 @@
         <v>0.3404255319148938</v>
       </c>
       <c r="H257" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8984,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9010,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9036,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9062,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9088,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9114,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9140,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9166,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9192,7 +9198,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9218,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9244,7 +9250,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9270,7 +9276,7 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="H269" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9296,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9322,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9348,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9374,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9400,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9426,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9452,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9478,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9504,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9530,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9556,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9582,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9608,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9634,7 +9640,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9660,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9686,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9712,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9738,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9764,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9790,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9816,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9842,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9868,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9894,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9920,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9946,7 +9952,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H295" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9972,7 +9978,7 @@
         <v>0.35</v>
       </c>
       <c r="H296" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9998,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10024,7 +10030,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H298" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10050,7 +10056,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10076,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10102,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10128,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10154,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10180,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10206,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10232,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10258,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10284,7 +10290,7 @@
         <v>0.673913043478261</v>
       </c>
       <c r="H308" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10310,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10336,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10362,7 +10368,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H311" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10388,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10414,7 +10420,7 @@
         <v>0.65</v>
       </c>
       <c r="H313" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10440,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10466,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10492,7 +10498,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H316" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10518,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10544,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10570,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10596,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10622,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10648,7 +10654,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10674,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10700,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10726,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10752,7 +10758,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H326" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10778,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10804,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10830,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10856,7 +10862,7 @@
         <v>0.4687499999999998</v>
       </c>
       <c r="H330" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10882,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10908,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10934,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10960,7 +10966,7 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="H334" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10986,7 +10992,7 @@
         <v>0.25</v>
       </c>
       <c r="H335" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11012,7 +11018,7 @@
         <v>0.7551020408163267</v>
       </c>
       <c r="H336" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11038,7 +11044,7 @@
         <v>0.26</v>
       </c>
       <c r="H337" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11064,7 +11070,7 @@
         <v>0.3750000000000002</v>
       </c>
       <c r="H338" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11090,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11116,7 +11122,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="H340" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11142,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11168,7 +11174,7 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="H342" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11194,7 +11200,7 @@
         <v>0.66</v>
       </c>
       <c r="H343" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11220,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11246,7 +11252,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="H345" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11272,7 +11278,7 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H346" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11298,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11324,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11350,7 +11356,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H349" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11376,7 +11382,7 @@
         <v>0.3255813953488371</v>
       </c>
       <c r="H350" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11402,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11428,7 +11434,7 @@
         <v>0.3023255813953489</v>
       </c>
       <c r="H352" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11454,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11480,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11506,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11532,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11558,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11584,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11610,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11636,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11662,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11688,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11714,7 +11720,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H363" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11740,7 +11746,7 @@
         <v>0.6756756756756758</v>
       </c>
       <c r="H364" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11766,7 +11772,7 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="H365" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11792,7 +11798,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H366" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11818,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11844,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11870,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11896,7 +11902,7 @@
         <v>0.5</v>
       </c>
       <c r="H370" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11922,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11948,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11974,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12000,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12026,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12052,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12078,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12104,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12130,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12156,7 +12162,7 @@
         <v>0.3235294117647058</v>
       </c>
       <c r="H380" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12182,7 +12188,7 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="H381" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12208,7 +12214,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H382" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12234,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12260,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12286,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12312,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12338,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12364,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12390,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12416,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12442,7 +12448,7 @@
         <v>0.5416666666666667</v>
       </c>
       <c r="H391" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12468,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12494,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12520,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12546,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12572,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12598,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12624,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12650,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12676,7 +12682,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H400" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12702,7 +12708,7 @@
         <v>0.6315789473684211</v>
       </c>
       <c r="H401" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12728,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12754,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12780,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12806,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12832,7 +12838,7 @@
         <v>0.6829268292682926</v>
       </c>
       <c r="H406" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12858,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12884,7 +12890,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12910,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12936,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12962,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12988,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13014,7 +13020,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H413" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13040,7 +13046,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H414" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13066,7 +13072,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H415" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13092,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13118,7 +13124,7 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="H417" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13144,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13170,7 +13176,7 @@
         <v>0.7317073170731707</v>
       </c>
       <c r="H419" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13196,7 +13202,7 @@
         <v>0.282051282051282</v>
       </c>
       <c r="H420" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13222,7 +13228,7 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="H421" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13248,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13274,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13300,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13326,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13352,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13378,7 +13384,7 @@
         <v>0.3170731707317073</v>
       </c>
       <c r="H427" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13404,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13430,7 +13436,7 @@
         <v>0.65</v>
       </c>
       <c r="H429" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13456,7 +13462,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H430" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13482,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13508,7 +13514,7 @@
         <v>0.6590909090909091</v>
       </c>
       <c r="H432" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13534,7 +13540,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13560,7 +13566,7 @@
         <v>0.6744186046511628</v>
       </c>
       <c r="H434" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13586,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13612,7 +13618,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H436" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13638,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13664,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13690,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13716,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13742,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13768,7 +13774,7 @@
         <v>0.35</v>
       </c>
       <c r="H442" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13794,7 +13800,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13820,7 +13826,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H444" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13846,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13872,7 +13878,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13898,7 +13904,7 @@
         <v>0.3</v>
       </c>
       <c r="H447" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13924,7 +13930,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H448" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13950,7 +13956,7 @@
         <v>0.7</v>
       </c>
       <c r="H449" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13976,7 +13982,7 @@
         <v>0.7</v>
       </c>
       <c r="H450" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14002,7 +14008,7 @@
         <v>0.717948717948718</v>
       </c>
       <c r="H451" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14028,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14054,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14080,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14106,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14132,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14158,7 +14164,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="H457" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14184,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14210,7 +14216,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H459" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14236,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14262,7 +14268,7 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="H461" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14288,7 +14294,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14314,7 +14320,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14340,7 +14346,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H464" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14366,7 +14372,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14392,7 +14398,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H466" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14418,7 +14424,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H467" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14444,7 +14450,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="H468" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14470,7 +14476,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14496,7 +14502,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="H470" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14522,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14548,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14574,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14600,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14626,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14652,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14678,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14704,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14730,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14756,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14782,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14808,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14834,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14860,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14886,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14912,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14938,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14964,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14990,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15016,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15042,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15068,7 +15074,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15094,7 +15100,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15120,7 +15126,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H494" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15146,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15172,7 +15178,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15198,7 +15204,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15224,7 +15230,7 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="H498" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15250,7 +15256,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H499" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15276,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15302,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15328,7 +15334,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H502" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15354,7 +15360,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="H503" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15380,7 +15386,7 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="H504" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15406,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15432,7 +15438,7 @@
         <v>0.7178999999999999</v>
       </c>
       <c r="H506" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15458,7 +15464,7 @@
         <v>0.3514</v>
       </c>
       <c r="H507" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15484,7 +15490,7 @@
         <v>0.3611</v>
       </c>
       <c r="H508" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15510,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15536,7 +15542,7 @@
         <v>1</v>
       </c>
       <c r="H510" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15562,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15588,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15614,7 +15620,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15640,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15666,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15692,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15718,7 +15724,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15744,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15770,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15796,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15822,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15848,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15874,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15900,7 +15906,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15926,7 +15932,7 @@
         <v>0.5417</v>
       </c>
       <c r="H525" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15952,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15978,7 +15984,7 @@
         <v>0.5417</v>
       </c>
       <c r="H527" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16004,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16030,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16056,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16082,7 +16088,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16108,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16134,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16160,7 +16166,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16186,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16212,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16238,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16264,7 +16270,7 @@
         <v>0.6944</v>
       </c>
       <c r="H538" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16290,7 +16296,7 @@
         <v>0.3243</v>
       </c>
       <c r="H539" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16316,7 +16322,7 @@
         <v>0.7027</v>
       </c>
       <c r="H540" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16342,7 +16348,7 @@
         <v>0.3514</v>
       </c>
       <c r="H541" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16368,7 +16374,7 @@
         <v>0.6757</v>
       </c>
       <c r="H542" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16394,7 +16400,7 @@
         <v>0.6667000000000001</v>
       </c>
       <c r="H543" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16420,7 +16426,7 @@
         <v>0.5</v>
       </c>
       <c r="H544" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16446,7 +16452,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16472,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16498,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16524,7 +16530,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16550,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16576,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16602,7 +16608,7 @@
         <v>0.5</v>
       </c>
       <c r="H551" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16628,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16654,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16680,7 +16686,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16706,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16732,7 +16738,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16758,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16784,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16810,7 +16816,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16836,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16862,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16888,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16914,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16940,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16966,7 +16972,7 @@
         <v>0.5</v>
       </c>
       <c r="H565" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16992,7 +16998,7 @@
         <v>0.5</v>
       </c>
       <c r="H566" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17018,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17044,7 +17050,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17070,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17096,7 +17102,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17122,7 +17128,7 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17132,9 +17138,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>0</v>
       </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
       <c r="F572">
         <v>1</v>
       </c>
@@ -17142,7 +17154,53 @@
         <v>0</v>
       </c>
       <c r="H572" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
         <v>579</v>
+      </c>
+      <c r="D574">
+        <v>0</v>
+      </c>
+      <c r="F574">
+        <v>1</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
